--- a/Kuzbass_Project/bin/Debug/Реестр.xlsx
+++ b/Kuzbass_Project/bin/Debug/Реестр.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -45,22 +45,52 @@
     <t>2113(12)</t>
   </si>
   <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>1Ф2-3</t>
+    <t>546</t>
+  </si>
+  <si>
+    <t>1РЦ-3</t>
   </si>
   <si>
     <t>Шуткина С.Н.</t>
   </si>
   <si>
-    <t>8900</t>
-  </si>
-  <si>
-    <t>1102.49</t>
-  </si>
-  <si>
-    <t>05.04.2019 13:15:13</t>
+    <t>600</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>05.04.2019 19:50:50</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>1Б55-3</t>
+  </si>
+  <si>
+    <t>Сторожилов А.С.</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>25.79</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>1М4-1</t>
+  </si>
+  <si>
+    <t>Ячкуринский Д.</t>
+  </si>
+  <si>
+    <t>11980</t>
+  </si>
+  <si>
+    <t>501.27</t>
   </si>
 </sst>
 </file>
@@ -435,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
@@ -506,6 +536,52 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Kuzbass_Project/bin/Debug/Реестр.xlsx
+++ b/Kuzbass_Project/bin/Debug/Реестр.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>501.27</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>1Ф2-3</t>
+  </si>
+  <si>
+    <t>8900</t>
+  </si>
+  <si>
+    <t>1102.49</t>
+  </si>
+  <si>
+    <t>06.04.2019 14:42:45</t>
   </si>
 </sst>
 </file>
@@ -465,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
@@ -583,6 +598,29 @@
       </c>
       <c r="G5" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Kuzbass_Project/bin/Debug/Реестр.xlsx
+++ b/Kuzbass_Project/bin/Debug/Реестр.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -42,27 +42,36 @@
     <t>Дата</t>
   </si>
   <si>
+    <t>Нет номера</t>
+  </si>
+  <si>
+    <t>Нет листа</t>
+  </si>
+  <si>
+    <t>Не задано</t>
+  </si>
+  <si>
+    <t>Нет исполнителя</t>
+  </si>
+  <si>
+    <t>Нет длины</t>
+  </si>
+  <si>
+    <t>asdasdasd</t>
+  </si>
+  <si>
+    <t>10.04.2019 19:53:22</t>
+  </si>
+  <si>
+    <t>10.04.2019 19:54:52</t>
+  </si>
+  <si>
+    <t>10.04.2019 19:56:31</t>
+  </si>
+  <si>
     <t>2113(12)</t>
   </si>
   <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>1РЦ-3</t>
-  </si>
-  <si>
-    <t>Шуткина С.Н.</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>5.78</t>
-  </si>
-  <si>
-    <t>05.04.2019 19:50:50</t>
-  </si>
-  <si>
     <t>299</t>
   </si>
   <si>
@@ -78,34 +87,7 @@
     <t>25.79</t>
   </si>
   <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>1М4-1</t>
-  </si>
-  <si>
-    <t>Ячкуринский Д.</t>
-  </si>
-  <si>
-    <t>11980</t>
-  </si>
-  <si>
-    <t>501.27</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>1Ф2-3</t>
-  </si>
-  <si>
-    <t>8900</t>
-  </si>
-  <si>
-    <t>1102.49</t>
-  </si>
-  <si>
-    <t>06.04.2019 14:42:45</t>
+    <t>10.04.2019 20:50:27</t>
   </si>
 </sst>
 </file>
@@ -559,22 +541,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -582,45 +564,45 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Kuzbass_Project/bin/Debug/Реестр.xlsx
+++ b/Kuzbass_Project/bin/Debug/Реестр.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -40,54 +40,6 @@
   </si>
   <si>
     <t>Дата</t>
-  </si>
-  <si>
-    <t>Нет номера</t>
-  </si>
-  <si>
-    <t>Нет листа</t>
-  </si>
-  <si>
-    <t>Не задано</t>
-  </si>
-  <si>
-    <t>Нет исполнителя</t>
-  </si>
-  <si>
-    <t>Нет длины</t>
-  </si>
-  <si>
-    <t>asdasdasd</t>
-  </si>
-  <si>
-    <t>10.04.2019 19:53:22</t>
-  </si>
-  <si>
-    <t>10.04.2019 19:54:52</t>
-  </si>
-  <si>
-    <t>10.04.2019 19:56:31</t>
-  </si>
-  <si>
-    <t>2113(12)</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>1Б55-3</t>
-  </si>
-  <si>
-    <t>Сторожилов А.С.</t>
-  </si>
-  <si>
-    <t>955</t>
-  </si>
-  <si>
-    <t>25.79</t>
-  </si>
-  <si>
-    <t>10.04.2019 20:50:27</t>
   </si>
 </sst>
 </file>
@@ -159,8 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -462,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
@@ -470,139 +421,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" style="2"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" style="2"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1" style="2"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1" style="2"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" style="2"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" style="2"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1" style="2"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1" style="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" style="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1" style="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Kuzbass_Project/bin/Debug/Реестр.xlsx
+++ b/Kuzbass_Project/bin/Debug/Реестр.xlsx
@@ -111,7 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -421,46 +422,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" style="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1" style="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" style="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" style="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1" style="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" style="2"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" style="2"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1" style="2"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1" style="2"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" style="2"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1" style="2"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="39">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Kuzbass_Project/bin/Debug/Реестр.xlsx
+++ b/Kuzbass_Project/bin/Debug/Реестр.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -40,6 +40,66 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>1852 (12)</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>C-6</t>
+  </si>
+  <si>
+    <t>Кириллова Т.В.</t>
+  </si>
+  <si>
+    <t>5857.43</t>
+  </si>
+  <si>
+    <t>329.8</t>
+  </si>
+  <si>
+    <t>11.11.2019 14:39:10</t>
+  </si>
+  <si>
+    <t>1852(16)</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>C-16</t>
+  </si>
+  <si>
+    <t>Сторожилов А.С.</t>
+  </si>
+  <si>
+    <t>3732</t>
+  </si>
+  <si>
+    <t>186.52</t>
+  </si>
+  <si>
+    <t>11.11.2019 14:39:21</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>CT-26</t>
+  </si>
+  <si>
+    <t>Шипунова Е.А.</t>
+  </si>
+  <si>
+    <t>4058,17</t>
+  </si>
+  <si>
+    <t>131,95</t>
+  </si>
+  <si>
+    <t>11.11.2019 14:39:33</t>
   </si>
 </sst>
 </file>
@@ -414,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
@@ -463,6 +523,75 @@
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Kuzbass_Project/bin/Debug/Реестр.xlsx
+++ b/Kuzbass_Project/bin/Debug/Реестр.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -100,6 +100,57 @@
   </si>
   <si>
     <t>11.11.2019 14:39:33</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>H-34</t>
+  </si>
+  <si>
+    <t>3520</t>
+  </si>
+  <si>
+    <t>60,79</t>
+  </si>
+  <si>
+    <t>01.12.2019 14:05:23</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>H-35</t>
+  </si>
+  <si>
+    <t>2820</t>
+  </si>
+  <si>
+    <t>48,7</t>
+  </si>
+  <si>
+    <t>01.12.2019 14:05:24</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>H-33</t>
+  </si>
+  <si>
+    <t>2930</t>
+  </si>
+  <si>
+    <t>50,6</t>
+  </si>
+  <si>
+    <t>01.12.2019 14:47:31</t>
+  </si>
+  <si>
+    <t>01.12.2019 14:47:32</t>
+  </si>
+  <si>
+    <t>01.12.2019 14:47:33</t>
   </si>
 </sst>
 </file>
@@ -474,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
@@ -592,6 +643,144 @@
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Kuzbass_Project/bin/Debug/Реестр.xlsx
+++ b/Kuzbass_Project/bin/Debug/Реестр.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>01.12.2019 14:47:33</t>
+  </si>
+  <si>
+    <t>10.12.2019 12:19:22</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
@@ -781,6 +784,75 @@
       </c>
       <c r="G11" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
